--- a/P0026/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0026/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28602"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0026/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{638CF3C9-885A-4B48-A796-02313C8058B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBDE0445-4263-49B5-8C3B-EF5DDC4EFC95}"/>
+  <xr:revisionPtr revIDLastSave="145" documentId="13_ncr:1_{638CF3C9-885A-4B48-A796-02313C8058B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D56C4594-D54A-4EAF-8A57-73FCB2BDD9FF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="61">
   <si>
     <t>CODIGO DE PROYECTO</t>
   </si>
@@ -101,31 +101,40 @@
     <t>001_2011-CV-1069_T1(1-49)</t>
   </si>
   <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0026/02_PRODUCTOS/2011-CV-1069_T1/001_2011-CV-1069_T1(1-49).pdf</t>
+  </si>
+  <si>
     <t>Universidad del Norte - IDEHA</t>
   </si>
   <si>
+    <t>Ministerio de Transporte</t>
+  </si>
+  <si>
+    <t>Instituto Nacional de Vias</t>
+  </si>
+  <si>
     <t>NA</t>
   </si>
   <si>
-    <t>El informe presenta la información asociada a la modelación hidrodinámica y morfológica del río Cauca, elaborado por el Instituto Nacional de Vías (INVIAS), presenta un análisis exhaustivo de las condiciones del río en sectores específicos, con el objetivo de evaluar la necesidad de intervenciones en las obras hidráulicas existentes. La modelación se realizó utilizando herramientas numéricas avanzadas, incluyendo modelos 1D (HecRas) y 2D (Mike 21C), para simular escenarios de caudales y condiciones morfológicas.</t>
+    <t xml:space="preserve">El proyecto llamado "ESTUDIOS HIDRAULICOS, SEDIMENTOLOGICOS Y MORFOLOGICOS, CON ENFASIS EN MODELACION MATEMATICA, RELACIONADOS CON EL PLAN INTEGRAL DE INTERVENCION A CORTO Y LARGO PLAZO ENTRE COLORADO (ANTIOQUIA) Y ACHI (BOLIVAR)" elaborado en el marco del convenio 1069 de 2011, tiene por objetivo determinar las características físicas y económicas del Bajo Cauca entre Caucasia y su confluencia al rio Magdalena. A fin de valorar y formular propuestas para mejorar las condiciones de transporte fluvial en la región. El documento "001_2011-CV-1069_T1(1-49)" corresponde al Informe I de "Caracterización demográfica y productiva", que tiene por objetivo diagnosticar la situación de producción agrícola y pecuaria, para la comercialización de los productos, empleos agrícolas, dinámica del crédito agrícola para el territorio ubicado entre los rios San Jorge y Cauca. </t>
   </si>
   <si>
     <t>Informe</t>
   </si>
   <si>
-    <t>docx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El informe presenta la información asociada a la modelación hidrodinámica y morfológica del río Cauca en los sectores Achí (K140), Boca del Cura (K133), Guaranda (K127), Caregato (K77), San Jacinto del Cauca (K88), Tenche (K95), Santa Anita (K71) y Nuevo Mundo (K53), en donde objetivo principal es mejorar el conocimiento del comportamiento del río y determinar la necesidad de reconstrucción de las obras hidráulicas de protección lateral existentes. Se identificaron sectores susceptibles a la erosión, considerando factores como la dinámica fluvial, resistencia de orillas a la erosión, y registros hidrológicos. Se valoró el efecto de las estructuras hidráulicas existentes en el río, concluyendo que las pequeñas embarcaciones son suficientes para el transporte de carga actual, sin necesidad de embarcaciones mayores, salvo para el transporte de equipos para la presa de Ituango </t>
+    <t>pdf</t>
+  </si>
+  <si>
+    <t>El informe contiene las características sociodemográficas como la distribución de la población, se presentan las pirámides poblacionales para los municipios de Sucre, San Benito Abad, Guaranda, Caimito, San Jacinto, Achí, Nechí, Majagual, Ayapel, San Marcos y Magangué, entre 2005 y 2011. Se presenta el análisis de las actividades económicas principalmente agrícola, en donde la producción de arroz es la actividad principal generadora de ingresos en la región, con la siembra de 42.592 ha y 178.306 toneladas, los mayores municipios fueron Majagual, San Jacinto del Cauca y Achí. Por otra parte, se sembraron 6.337 ha de cultivos permanentes, el 71.9% de yuca. En cuanto a la actividad pecuaria y ganadera, la región de La Mojana tiene una población de 387.363 cabezas que pastan en 521.072 ha, en los municipios de Ayapel y Magangué principalmente. En cuanto a la actividad avícola se crían 242.150 mediante sistema tecnificado. En cuanto a la actividad acuícola a la fecha del informe se reporta un bajo desarrollo. Algunas conclusiones del estudio recalcan que el comportamiento de la composición poblacional es contrario al resto del país siendo el 51% hombres y una pirámide poblacional de rápido crecimiento con altos índices de dependencia.</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>El documento podría incluir un análisis más profundo sobre las implicaciones a largo plazo de las intervenciones propuestas, así como un enfoque más detallado sobre cómo se integrarán los resultados en la planificación futura. No se presentan archivos nativos del modelo</t>
-  </si>
-  <si>
-    <t>Río, Cauca, Modelación numérica, Hidrodinámica, Morfología, Río Cauca, Protección hidráulica, Monitoreo ambiental</t>
+    <t>Variables: Número de productores, área sembrada y unidades productoras de arroz en 2007 (tabla2, página 21), área sembrada con cultivos permanentes en 2009 (tabla 6, pagina 23).  Este informe es útil para el análisis histórico de tendencias productivas en la región de La Mojana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Río, Cauca, modelación numérica, hidrodinámica, morfología, Río Cauca, protección hidráulica, monitoreo ambiental, composición demográfica, cultivos, actividad económica, pesca, arroz, ganadería, Ayapel, Achí, Majagual, Magangué, San Benito Abad, Nechí, Sucre, Caimito, Guaranda, San Jacinto, San Marcos, </t>
   </si>
   <si>
     <t>PR0007</t>
@@ -134,44 +143,100 @@
     <t>000_2011-CV-1069_T1(50-216)</t>
   </si>
   <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0026/02_PRODUCTOS/2011-CV-1069_T1/000_2011-CV-1069_T1(50-216).pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El proyecto llamado "ESTUDIOS HIDRAULICOS, SEDIMENTOLOGICOS Y MORFOLOGICOS, CON ENFASIS EN MODELACION MATEMATICA, RELACIONADOS CON EL PLAN INTEGRAL DE INTERVENCION A CORTO Y LARGO PLAZO ENTRE COLORADO (ANTIOQUIA) Y ACHI (BOLIVAR)" elaborado en el marco del convenio 1069 de 2011, tiene por objetivo determinar las características físicas y económicas del Bajo Cauca entre Caucasia y su confluencia al rio Magdalena. A fin de valorar y formular propuestas para mejorar las condiciones de transporte fluvial en la región. El documento "000_2011-CV-1069_T1(50-216)" corresponde al informe 2, estudio para la optimización de transporte intermodal de carga y de pasajeros entre la red fluvial y la red vial en el sector de La Mojana. El cual tiene por objetivo llevar a cabo una valoración del sistema de transporte de la región de La Mojana, en lo conrrespondiente con el transporte de carga y pasajeros por el rio Cauca, para tener una base en la formualción de estrategias encaminadas a la optimización. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este documento se presentan los resultados de la caracterización y modelación de los flujos de transporte, la definición de las embarcaciones de diseño, cuyas especificaciones técnicas son el insumo para el diseño de las vías fluviales. El documento aborda el estado del arte y metodología, en donde se hace un abordaje del modelo clásico de transporte con un modelo de demanda y oferta. Se inicia con una zonificación a nivel nacional de 98 zonas, 11 de La Mojana y las otras del resto del país. Posterior una zonificación de transporte de carga, en donde la carga agrícola se compone de 13 zonas y la carga de pasajeros de 16 zonas. Se hace una descripción detallada del sistema de transporte, de rutas, tipología de los vehículos de La Mojana, a través del rio Magdalena y Cauca, en el Caño Mojana, en el caño Rabón, Carretera San Marcos-Majagual-Achí, vías carreteables, costos de transporte de carga. Se hace una proyección de la demanda de pasajeros en el río Cauca, caracterización de la demanda y patrones de viaje. Así mismo, se hace la cuantificación de la producción de La Mojana en actividades agrícolas y pecuarias, para finalmente obtener la proyección de la demanda de transporte para la producción de La Mojana. Se realiza recolección de información primaria, encuestas a pasajeros, a transportadores de carga, aforos de embarcaciones de pasajeros. Se realizan algunos escenarios de modelación y se obtienen resultados como por ejemplo en el escenario optimista la producción agrícola llega a 300.000 toneladas anuales. Se realiza la proyección de la demanda de transporte para la carga entrante. 
+Como conclusión se tiene que el 50% de la carga total transportable va hacia Magangué por el rio Cauca y el caño Mojana, mientras un 30% va hacia San Marcos por los caños Rabón, San Matías y la carretera Majagual-San Marcos. El rio Cauca podría transportar hasta 700 toneladas diarias en el mes de máxima demanda. 
+</t>
+  </si>
+  <si>
+    <t>% de carga transportados por producto tabla 4.2 tabla, pagina 43, tabla 4.3 pagina 44.
+tarifas y tiempos de viaje tabla 4.6 pagina 46, costos de transporte de carga tabla 4.8 pagina 50</t>
+  </si>
+  <si>
+    <t>Río, Cauca, modelación numérica, hidrodinámica, morfología, Río Cauca, protección hidráulica, monitoreo ambiental, composición demográfica, cultivos, actividad económica, pesca, arroz, ganadería, Ayapel, Achí, Majagual, Magangué, San Benito Abad, Nechí, Sucre, Caimito, Guaranda, San Jacinto, San Marcos, trnasporte fluvial, transporte terrestre, modelo de transporte, demanda de pasajeros, demanda de carga, rutas fluviales</t>
+  </si>
+  <si>
     <t>PR0008</t>
   </si>
   <si>
     <t>002_2011-CV-1069_T2(217-391)</t>
   </si>
   <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0026/02_PRODUCTOS/2011-CV-1069_T1/002_2011-CV-1069_T2(217-391).pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El proyecto llamado "ESTUDIOS HIDRAULICOS, SEDIMENTOLOGICOS Y MORFOLOGICOS, CON ENFASIS EN MODELACION MATEMATICA, RELACIONADOS CON EL PLAN INTEGRAL DE INTERVENCION A CORTO Y LARGO PLAZO ENTRE COLORADO (ANTIOQUIA) Y ACHI (BOLIVAR)" elaborado en el marco del convenio 1069 de 2011, tiene por objetivo determinar las características físicas y económicas del Bajo Cauca entre Caucasia y su confluencia al rio Magdalena. A fin de valorar y formular propuestas para mejorar las condiciones de transporte fluvial en la región. El documento "002_2011-CV-1069_T2(217-391)" corresponde al informe 3, "Caracterización hidráulica y sedimentológica entre Caucasia y la desembocadura en el brazo de Loba - rio Magdalena", contando con la información facilitada por el IDEAM. Campañas hidrosedimentológicas en el rio Cauca entre Caucasia y la desembocadura en el brazo de Loba - rio Magdalena. Inventario de estructuras hidráulicas que se encuentran en el lecho del río Cauca entre Colorado-Antioquia (K47) y Achí-Bolívar (K139).  En el mismo documento se presenta también el informe final de geología, geomorfología, resistencia de orillas, multitemporal de orillas, dinánima fluvial, erosión y sedimentación y zonas críticas, en una franja e 25-30 Km entre Caucasia (K0) y la desembocadura en el brazo de Loba - rio Magdalena (K186). 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El informe 3 presenta como objetivos principales determinar el comportamiento de los niveles y caudales máximos, medios y mínimos, determinar los niveles asociados a los diferentes periodos de retorno como insumo para el control de inundaciones y navegación del río Cauca. Establecer las correlaciones entre niveles y caudales para las estaciones y establecer las correlaciones entre los caudales y el transporte de sedimentos. Se presentan algunas generalidades como información disponible, principalmente de estaciones del IDEAM. Estado de las estaciones (accesibilidad), ubicación de desbordes y rompederos y el año de ocurrencia. Se realiza el análisis de niveles, para ellos se presentan las series históricas, donde se observa un comportamiento bimodal para el rio Cauca, las curvas de excedencia para niveles diarios, curvas de duración de niveles excedidos, análisis de frecuencia de niveles extremos y variación longitudinal de niveles. Se presentan algunos aspectos de la navegación como el nivel de reducción con periodo de retorno asociado. Se realiza el análisis de caudales, en donde se presentan las curvas de excedencias para caudales diarios, curvas de duración de caudales excedidos, correlación nivel-caudal y transporte de sedimentos en suspensión. Se realiza toma de información primaria en 7 campañas donde se hicieron batimetrías detallas, aforos líquidos, mediciones de velocidad, lectura de niveles de agua para cada estación y se tomaron muestras del lecho del río. Se realiza un modelo matemático 1D en HEC-RAS para el tramo entre la estación La Coquera (K0) y Tres Cruces (K158), se obtuvieron las curvas de remanso para los caudales entre 1000 y 4500 m3/s. 
+En el informe final de geología se presenta inicialmente el análisis y procesamiento de la información de sensores remotos para la elaboración cartográfica. En el estudio de geología se realiza la descripción de los depósitos, unidades y las fuentes de los materiales, se realiza el análisis de las unidades geomorfológicas y se hace un análisis de las resistencias relativas de los materiales a la erosión hídrica. Se realiza un análisis de la dinámica fluvial del río Cauca, estabilidad del cauce y se describen los procesos de erosión y sedimentación entre el 2002-2011 como línea base. Se identifican zonas críticas para la navegación, se identifican los lugares sobre el río (K) donde son mñas susceptibles a procesos de erosión formación de rompederos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Frecuencia de niveles maximos extremos figura 12, 13, 14 ,15  (pagina 12 y siguientes),  periodo de retorno a niveles minimos tabla 8 (pagina 15), nivel de reducción tabla 10 (pagina 17), transporte de sedimentos en suspensión taba15 (pagina 26). 
+Estabilidad del cauce rio Cauca página 81, zonas críticas sobre el río Cauaca página 87. No se presentan archivos nativos del modelo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modelación numérica, hidrodinámica, morfología, río Cauca, protección hidráulica, monitoreo ambiental, hidrología, geología, geomorfología, estabilidad, erosión, HEC-RAS, niveles, caudales, curvas de excedencia. </t>
+  </si>
+  <si>
     <t>PR0009</t>
   </si>
   <si>
     <t>003_2011-CV-1069_T3(392-600)</t>
   </si>
   <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0026/02_PRODUCTOS/2011-CV-1069_T1/003_2011-CV-1069_T3(392-600).pdf</t>
+  </si>
+  <si>
+    <t>El proyecto llamado "ESTUDIOS HIDRAULICOS, SEDIMENTOLOGICOS Y MORFOLOGICOS, CON ENFASIS EN MODELACION MATEMATICA, RELACIONADOS CON EL PLAN INTEGRAL DE INTERVENCION A CORTO Y LARGO PLAZO ENTRE COLORADO (ANTIOQUIA) Y ACHI (BOLIVAR)" elaborado en el marco del convenio 1069 de 2011, tiene por objetivo determinar las características físicas y económicas del Bajo Cauca entre Caucasia y su confluencia al rio Magdalena. A fin de valorar y formular propuestas para mejorar las condiciones de transporte fluvial en la región. El informe "003_2011-CV-1069_T3(392-600)" presenta la información asociada a la modelación hidrodinámica y morfológica del río Cauca, elaborado por el Instituto Nacional de Vías (INVIAS), presenta un análisis exhaustivo de las condiciones del río en sectores específicos, con el objetivo de evaluar la necesidad de intervenciones en las obras hidráulicas existentes. La modelación se realizó utilizando herramientas numéricas avanzadas, incluyendo modelos 1D (HecRas) y 2D (Mike 21C), para simular escenarios de caudales y condiciones morfológicas. 
+El mismo documento contiene el Informe 5, que corresponde al sistema de asistencia satelital a la navegación para el rio Cauca, se presenta la realización de una herramienta Sistema de Información Geográfico (SIG), para la visualización y actualización del canal navegable del rio Cauca entre Caucasia y la desembocadura del rio en el Brazo de Loba.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El informe presenta la información asociada a la modelación hidrodinámica y morfológica del río Cauca en los sectores Achí (K140), Boca del Cura (K133), Guaranda (K127), Caregato (K77), San Jacinto del Cauca (K88), Tenche (K95), Santa Anita (K71) y Nuevo Mundo (K53), en donde objetivo principal es mejorar el conocimiento del comportamiento del río y determinar la necesidad de reconstrucción de las obras hidráulicas de protección lateral existentes. Se identificaron sectores susceptibles a la erosión, considerando factores como la dinámica fluvial, resistencia de orillas a la erosión, y registros hidrológicos. Se valoró el efecto de las estructuras hidráulicas existentes en el río, concluyendo que las pequeñas embarcaciones son suficientes para el transporte de carga actual, sin necesidad de embarcaciones mayores, salvo para el transporte de equipos para la presa de Ituango. 
+En el informe 5 "sistema de asistencia satelital a la navegación para el rio Cauca" se presenta el desarrollo e implementación del sistema que se realizó con datos tomados en campo por el IDEHA.  En el informe se detalla la interfaz gráfica, la arquitectura general del sistema, la administración, también se explica el paso a paso de los modulos y funciones y finalmente una verificación del sistema. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El documento podría incluir un análisis más profundo sobre las implicaciones a largo plazo de las intervenciones propuestas, así como un enfoque más detallado sobre cómo se integrarán los resultados en la planificación futura. No se presentan archivos nativos del modelo. Se presentan varios mapas e imágenes valiosas pero por la resolución no me permite la extracción de las variables cuantitativas. </t>
+  </si>
+  <si>
+    <t>Modelación numérica, hidrodinámica, morfología, río Cauca, protección hidráulica, monitoreo ambiental, hidrología, navegación satelital, SIG, MIKE-21C, HEC-RAS, INVIAS, navegabilidad, Caucasia, sistema satelital de asistencia</t>
+  </si>
+  <si>
     <t>PR0010</t>
   </si>
   <si>
     <t>004_2011-CV-1069_T4(601-817)</t>
   </si>
   <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0026/02_PRODUCTOS/2011-CV-1069_T1/001_2011-CV-1069_T1(1-49).pdf</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0026/02_PRODUCTOS/2011-CV-1069_T1/000_2011-CV-1069_T1(50-216).pdf</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0026/02_PRODUCTOS/2011-CV-1069_T1/002_2011-CV-1069_T2(217-391).pdf</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0026/02_PRODUCTOS/2011-CV-1069_T1/003_2011-CV-1069_T3(392-600).pdf</t>
-  </si>
-  <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0026/02_PRODUCTOS/2011-CV-1069_T1/004_2011-CV-1069_T4(601-817).pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El proyecto llamado "ESTUDIOS HIDRAULICOS, SEDIMENTOLOGICOS Y MORFOLOGICOS, CON ENFASIS EN MODELACION MATEMATICA, RELACIONADOS CON EL PLAN INTEGRAL DE INTERVENCION A CORTO Y LARGO PLAZO ENTRE COLORADO (ANTIOQUIA) Y ACHI (BOLIVAR)" elaborado en el marco del convenio 1069 de 2011, tiene por objetivo determinar las características físicas y económicas del Bajo Cauca entre Caucasia y su confluencia al rio Magdalena. A fin de valorar y formular propuestas para mejorar las condiciones de transporte fluvial en la región. En el documento "004_2011-CV-1069_T4(601-817)" se presentan dos informes el TOMO II que corresponde al resumen resumen ejecutivo Geología - Geomorfología, resistencia de orillas, multitemporal de orillas, dinámica fluvial, eorsión y sedimentación y zonas críticas, cuyo objetivo es determinar el comportamiento del rio Cauca para la definición de aáreas críticas y estables utilizando técnicas de procesamiento digital de imágenes multitemporales. Y el TOMO III resumen ejecutivo del proyecto con su cartilla, en donde se presetan todas las secciones de los documentos iniciales. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En el informe TOMO II, se presenta en su mayoría las secciones presentadas en el informe final de geología, geomorfología, resistencia de orillas, multitemporal de orillas, dinámica fluvial, erosión y sedimentación y zonas críticas. En este resumen ejecutivo se dan algunas conclusiones respecto a las zonas críticas: uno de los factores que incide en el rompedero de Nuevo Mundo es el desplazamiento del meandro. En el rompedero San Anita influyó para los procesos erosivos los niveles altos del río y la presión sobre la orilla. La margen izquierda del rio Cauca presenta mayor movilidad. Las principales poblaciones que se ven afectadas por el rio Cauca son: Caucasia, Puerto Neiva, caserío Palanoa, El palomar, Margento, Colorado, Nuevo Mundo, Nechí, Porvenir, Santa Lucía, Mejico, San Jacinto, Tenche, Puerto Galindo, Guaranda, Achí, El Rosario, La Envidia, Puerto Pety, Tres Cruces, Guacamaya, Buenos Aires, Santa Mónica y Las Flores. El informe concluye que una de las soluciones a mediano plazo debe estar enfocada a la remoción del dique carreteable que obstruye el desplazamiento natural del rio Cauca por su lecho mayor en el sector de Nechí, se sugiere evaluar la reubicación de las poblaciones sobre la margen derecha. 
+En el resumen ejecutivo TOMO III, se presentan las generalidades del proyecto, el resumen de las mediciones hidrométricas de campo, la caracterización hidráulica y sedimentológica, la caracterización demográfica y productiva, el inventario de estructuras de control de erosión lateral e inundación en el rio Cauca, geología y geomorfología, modelación matemática, diseño e implementación del sistema satelital de asistencia a la navegación SNS-II, y las acciones a corto (2012-2022), mediano (2012-2037) y largo plazo (2012-2062). De las recomendaciones se destaca el continuar con el monitoreo hidráulico y sedimentológico, actualización constante de la dinámica lateral, generar un desarrollo económico sostenible a partir de emprendimiento agrícolas, con la operación de Ituango, Cañofisto, Espíritu Santo y Nechí durante el fenómeno del niño habrá reducción de la capacidad del río para navegación. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El documento presenta información valiosa respecto a las conclusiones y análisis de la tabla 11-2 pag 112 a 125. Relación de puntos de rompederos y desbordes del rio Cauca (localizado por absizado,  (K)), tabla 5 pagina 61. </t>
+  </si>
+  <si>
+    <t>Río, Cauca, modelación numérica, hidrodinámica, morfología, Río Cauca, protección hidráulica, monitoreo ambiental, transporte de sedimentos, transporte de carga, transporte de pasajeros, rompederos, meandros, geología, geomorfología, hidrología, hidráulica, dinámica fluvial, modelación matemática, protección hidráulica, monitoreo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,9 +300,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,16 +590,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="9.5703125" customWidth="1"/>
     <col min="10" max="10" width="13.42578125" customWidth="1"/>
@@ -537,12 +607,12 @@
     <col min="12" max="12" width="10.5703125" customWidth="1"/>
     <col min="13" max="13" width="11.42578125" customWidth="1"/>
     <col min="14" max="14" width="20" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" customWidth="1"/>
-    <col min="16" max="16" width="9.7109375" customWidth="1"/>
+    <col min="15" max="15" width="7" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" customWidth="1"/>
     <col min="17" max="17" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -598,284 +668,284 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:18" s="2" customFormat="1" ht="15">
+      <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2012</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="2" customFormat="1" ht="15">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2012</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E2">
+      <c r="R3" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="2" customFormat="1" ht="15">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="2">
         <v>2012</v>
       </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="F4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="2" customFormat="1" ht="15">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2012</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="G5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L2" t="s">
+      <c r="H5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="I5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="P2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="M5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="R2" t="s">
-        <v>29</v>
+      <c r="N5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3">
-        <v>2012</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>28</v>
-      </c>
-      <c r="R3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4">
-        <v>2012</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>28</v>
-      </c>
-      <c r="R4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5">
-        <v>2012</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" t="s">
-        <v>26</v>
-      </c>
-      <c r="O5" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>28</v>
-      </c>
-      <c r="R5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="15">
       <c r="A6" t="s">
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="E6">
         <v>2012</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="L6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M6" t="s">
-        <v>25</v>
-      </c>
-      <c r="N6" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="O6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Q6" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="R6" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -885,15 +955,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010097FB7C5121AAD04EA5DBB516CB842770" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ca6bde7a5d319871883c00f261789bac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3277f09b-73d6-4795-b7e6-f63d7d60cc69" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6422850a7e45dad78806fd17bfbce0a" ns2:_="">
     <xsd:import namespace="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
@@ -1037,28 +1098,19 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
 </file>